--- a/file.xlsx
+++ b/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt-progect\FCT_SMT\FCT_SMT_1221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4318208-F1ED-4C4E-AAC0-8CF3F6BD4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5149D4-0D74-4E2E-A471-1D61BD9B5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>NG</t>
   </si>
@@ -177,6 +177,18 @@
   <si>
     <t>NG</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K23120000020_x000D_</t>
+  </si>
+  <si>
+    <t>K23120000019_x000D_</t>
+  </si>
+  <si>
+    <t>K23120000018_x000D_</t>
+  </si>
+  <si>
+    <t>FXLT20220506836_x000D_</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
       <selection activeCell="AE27" sqref="A1:XFD1048576"/>
@@ -832,6 +844,2148 @@
         <v>35</v>
       </c>
       <c r="AM12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>16230</v>
+      </c>
+      <c r="E13">
+        <v>-1266</v>
+      </c>
+      <c r="F13">
+        <v>9500</v>
+      </c>
+      <c r="G13">
+        <v>588</v>
+      </c>
+      <c r="H13">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>51</v>
+      </c>
+      <c r="M13">
+        <v>3834</v>
+      </c>
+      <c r="N13">
+        <v>3927</v>
+      </c>
+      <c r="O13">
+        <v>129</v>
+      </c>
+      <c r="P13">
+        <v>129</v>
+      </c>
+      <c r="Q13">
+        <v>130</v>
+      </c>
+      <c r="R13">
+        <v>131</v>
+      </c>
+      <c r="S13">
+        <v>-61186</v>
+      </c>
+      <c r="T13">
+        <v>61174</v>
+      </c>
+      <c r="U13">
+        <v>4057</v>
+      </c>
+      <c r="V13">
+        <v>1265</v>
+      </c>
+      <c r="W13">
+        <v>827</v>
+      </c>
+      <c r="X13">
+        <v>835</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>23</v>
+      </c>
+      <c r="AA13">
+        <v>24</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>32</v>
+      </c>
+      <c r="AJ13">
+        <v>33</v>
+      </c>
+      <c r="AK13">
+        <v>34</v>
+      </c>
+      <c r="AL13">
+        <v>35</v>
+      </c>
+      <c r="AM13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>14186</v>
+      </c>
+      <c r="E14">
+        <v>-1742</v>
+      </c>
+      <c r="F14">
+        <v>12700</v>
+      </c>
+      <c r="G14">
+        <v>549</v>
+      </c>
+      <c r="H14">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>3889</v>
+      </c>
+      <c r="N14">
+        <v>3833</v>
+      </c>
+      <c r="O14">
+        <v>129</v>
+      </c>
+      <c r="P14">
+        <v>129</v>
+      </c>
+      <c r="Q14">
+        <v>130</v>
+      </c>
+      <c r="R14">
+        <v>131</v>
+      </c>
+      <c r="S14">
+        <v>3625</v>
+      </c>
+      <c r="T14">
+        <v>-3635</v>
+      </c>
+      <c r="U14">
+        <v>3886</v>
+      </c>
+      <c r="V14">
+        <v>1262</v>
+      </c>
+      <c r="W14">
+        <v>827</v>
+      </c>
+      <c r="X14">
+        <v>838</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>23</v>
+      </c>
+      <c r="AA14">
+        <v>24</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>32</v>
+      </c>
+      <c r="AJ14">
+        <v>33</v>
+      </c>
+      <c r="AK14">
+        <v>34</v>
+      </c>
+      <c r="AL14">
+        <v>35</v>
+      </c>
+      <c r="AM14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>14539</v>
+      </c>
+      <c r="E15">
+        <v>-1741</v>
+      </c>
+      <c r="F15">
+        <v>12500</v>
+      </c>
+      <c r="G15">
+        <v>552</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>41</v>
+      </c>
+      <c r="M15">
+        <v>3894</v>
+      </c>
+      <c r="N15">
+        <v>4095</v>
+      </c>
+      <c r="O15">
+        <v>129</v>
+      </c>
+      <c r="P15">
+        <v>129</v>
+      </c>
+      <c r="Q15">
+        <v>130</v>
+      </c>
+      <c r="R15">
+        <v>131</v>
+      </c>
+      <c r="S15">
+        <v>3452</v>
+      </c>
+      <c r="T15">
+        <v>-3456</v>
+      </c>
+      <c r="U15">
+        <v>4031</v>
+      </c>
+      <c r="V15">
+        <v>1268</v>
+      </c>
+      <c r="W15">
+        <v>827</v>
+      </c>
+      <c r="X15">
+        <v>839</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>23</v>
+      </c>
+      <c r="AA15">
+        <v>24</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>32</v>
+      </c>
+      <c r="AJ15">
+        <v>33</v>
+      </c>
+      <c r="AK15">
+        <v>34</v>
+      </c>
+      <c r="AL15">
+        <v>35</v>
+      </c>
+      <c r="AM15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>15236</v>
+      </c>
+      <c r="E16">
+        <v>-1742</v>
+      </c>
+      <c r="F16">
+        <v>13000</v>
+      </c>
+      <c r="G16">
+        <v>565</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>27</v>
+      </c>
+      <c r="M16">
+        <v>3878</v>
+      </c>
+      <c r="N16">
+        <v>4095</v>
+      </c>
+      <c r="O16">
+        <v>129</v>
+      </c>
+      <c r="P16">
+        <v>129</v>
+      </c>
+      <c r="Q16">
+        <v>130</v>
+      </c>
+      <c r="R16">
+        <v>131</v>
+      </c>
+      <c r="S16">
+        <v>-58208</v>
+      </c>
+      <c r="T16">
+        <v>58319</v>
+      </c>
+      <c r="U16">
+        <v>3927</v>
+      </c>
+      <c r="V16">
+        <v>1263</v>
+      </c>
+      <c r="W16">
+        <v>827</v>
+      </c>
+      <c r="X16">
+        <v>839</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>23</v>
+      </c>
+      <c r="AA16">
+        <v>24</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>32</v>
+      </c>
+      <c r="AJ16">
+        <v>33</v>
+      </c>
+      <c r="AK16">
+        <v>34</v>
+      </c>
+      <c r="AL16">
+        <v>35</v>
+      </c>
+      <c r="AM16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>13874</v>
+      </c>
+      <c r="E17">
+        <v>-1742</v>
+      </c>
+      <c r="F17">
+        <v>12600</v>
+      </c>
+      <c r="G17">
+        <v>555</v>
+      </c>
+      <c r="H17">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>65</v>
+      </c>
+      <c r="M17">
+        <v>3927</v>
+      </c>
+      <c r="N17">
+        <v>4095</v>
+      </c>
+      <c r="O17">
+        <v>129</v>
+      </c>
+      <c r="P17">
+        <v>129</v>
+      </c>
+      <c r="Q17">
+        <v>130</v>
+      </c>
+      <c r="R17">
+        <v>131</v>
+      </c>
+      <c r="S17">
+        <v>3468</v>
+      </c>
+      <c r="T17">
+        <v>-3605</v>
+      </c>
+      <c r="U17">
+        <v>3916</v>
+      </c>
+      <c r="V17">
+        <v>1266</v>
+      </c>
+      <c r="W17">
+        <v>827</v>
+      </c>
+      <c r="X17">
+        <v>839</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>23</v>
+      </c>
+      <c r="AA17">
+        <v>24</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>32</v>
+      </c>
+      <c r="AJ17">
+        <v>33</v>
+      </c>
+      <c r="AK17">
+        <v>34</v>
+      </c>
+      <c r="AL17">
+        <v>35</v>
+      </c>
+      <c r="AM17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>15473</v>
+      </c>
+      <c r="E18">
+        <v>-1743</v>
+      </c>
+      <c r="F18">
+        <v>13000</v>
+      </c>
+      <c r="G18">
+        <v>572</v>
+      </c>
+      <c r="H18">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>3919</v>
+      </c>
+      <c r="N18">
+        <v>4095</v>
+      </c>
+      <c r="O18">
+        <v>129</v>
+      </c>
+      <c r="P18">
+        <v>129</v>
+      </c>
+      <c r="Q18">
+        <v>130</v>
+      </c>
+      <c r="R18">
+        <v>131</v>
+      </c>
+      <c r="S18">
+        <v>-41291</v>
+      </c>
+      <c r="T18">
+        <v>42161</v>
+      </c>
+      <c r="U18">
+        <v>4031</v>
+      </c>
+      <c r="V18">
+        <v>1271</v>
+      </c>
+      <c r="W18">
+        <v>827</v>
+      </c>
+      <c r="X18">
+        <v>839</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>23</v>
+      </c>
+      <c r="AA18">
+        <v>24</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>32</v>
+      </c>
+      <c r="AJ18">
+        <v>33</v>
+      </c>
+      <c r="AK18">
+        <v>34</v>
+      </c>
+      <c r="AL18">
+        <v>35</v>
+      </c>
+      <c r="AM18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>14619</v>
+      </c>
+      <c r="E19">
+        <v>-1748</v>
+      </c>
+      <c r="F19">
+        <v>12800</v>
+      </c>
+      <c r="G19">
+        <v>573</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>3894</v>
+      </c>
+      <c r="N19">
+        <v>4095</v>
+      </c>
+      <c r="O19">
+        <v>129</v>
+      </c>
+      <c r="P19">
+        <v>129</v>
+      </c>
+      <c r="Q19">
+        <v>130</v>
+      </c>
+      <c r="R19">
+        <v>131</v>
+      </c>
+      <c r="S19">
+        <v>3776</v>
+      </c>
+      <c r="T19">
+        <v>-3753</v>
+      </c>
+      <c r="U19">
+        <v>3844</v>
+      </c>
+      <c r="V19">
+        <v>1260</v>
+      </c>
+      <c r="W19">
+        <v>827</v>
+      </c>
+      <c r="X19">
+        <v>839</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>23</v>
+      </c>
+      <c r="AA19">
+        <v>24</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>32</v>
+      </c>
+      <c r="AJ19">
+        <v>33</v>
+      </c>
+      <c r="AK19">
+        <v>34</v>
+      </c>
+      <c r="AL19">
+        <v>35</v>
+      </c>
+      <c r="AM19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>15259</v>
+      </c>
+      <c r="E20">
+        <v>-1744</v>
+      </c>
+      <c r="F20">
+        <v>12900</v>
+      </c>
+      <c r="G20">
+        <v>566</v>
+      </c>
+      <c r="H20">
+        <v>43</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>3898</v>
+      </c>
+      <c r="N20">
+        <v>4095</v>
+      </c>
+      <c r="O20">
+        <v>129</v>
+      </c>
+      <c r="P20">
+        <v>129</v>
+      </c>
+      <c r="Q20">
+        <v>130</v>
+      </c>
+      <c r="R20">
+        <v>131</v>
+      </c>
+      <c r="S20">
+        <v>-60980</v>
+      </c>
+      <c r="T20">
+        <v>61002</v>
+      </c>
+      <c r="U20">
+        <v>3956</v>
+      </c>
+      <c r="V20">
+        <v>1271</v>
+      </c>
+      <c r="W20">
+        <v>827</v>
+      </c>
+      <c r="X20">
+        <v>839</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>23</v>
+      </c>
+      <c r="AA20">
+        <v>24</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>32</v>
+      </c>
+      <c r="AJ20">
+        <v>33</v>
+      </c>
+      <c r="AK20">
+        <v>34</v>
+      </c>
+      <c r="AL20">
+        <v>35</v>
+      </c>
+      <c r="AM20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>15383</v>
+      </c>
+      <c r="E21">
+        <v>-1743</v>
+      </c>
+      <c r="F21">
+        <v>12900</v>
+      </c>
+      <c r="G21">
+        <v>567</v>
+      </c>
+      <c r="H21">
+        <v>43</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>3937</v>
+      </c>
+      <c r="N21">
+        <v>4095</v>
+      </c>
+      <c r="O21">
+        <v>129</v>
+      </c>
+      <c r="P21">
+        <v>129</v>
+      </c>
+      <c r="Q21">
+        <v>130</v>
+      </c>
+      <c r="R21">
+        <v>131</v>
+      </c>
+      <c r="S21">
+        <v>-60867</v>
+      </c>
+      <c r="T21">
+        <v>60914</v>
+      </c>
+      <c r="U21">
+        <v>3938</v>
+      </c>
+      <c r="V21">
+        <v>1271</v>
+      </c>
+      <c r="W21">
+        <v>827</v>
+      </c>
+      <c r="X21">
+        <v>839</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>23</v>
+      </c>
+      <c r="AA21">
+        <v>24</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>32</v>
+      </c>
+      <c r="AJ21">
+        <v>33</v>
+      </c>
+      <c r="AK21">
+        <v>34</v>
+      </c>
+      <c r="AL21">
+        <v>35</v>
+      </c>
+      <c r="AM21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>12598</v>
+      </c>
+      <c r="E22">
+        <v>-1746</v>
+      </c>
+      <c r="F22">
+        <v>12200</v>
+      </c>
+      <c r="G22">
+        <v>534</v>
+      </c>
+      <c r="H22">
+        <v>43</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>3934</v>
+      </c>
+      <c r="N22">
+        <v>4095</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>129</v>
+      </c>
+      <c r="Q22">
+        <v>130</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3582</v>
+      </c>
+      <c r="T22">
+        <v>-3576</v>
+      </c>
+      <c r="U22">
+        <v>3905</v>
+      </c>
+      <c r="V22">
+        <v>1265</v>
+      </c>
+      <c r="W22">
+        <v>827</v>
+      </c>
+      <c r="X22">
+        <v>839</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>23</v>
+      </c>
+      <c r="AA22">
+        <v>24</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>32</v>
+      </c>
+      <c r="AJ22">
+        <v>33</v>
+      </c>
+      <c r="AK22">
+        <v>34</v>
+      </c>
+      <c r="AL22">
+        <v>35</v>
+      </c>
+      <c r="AM22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11891</v>
+      </c>
+      <c r="E23">
+        <v>-1744</v>
+      </c>
+      <c r="F23">
+        <v>11800</v>
+      </c>
+      <c r="G23">
+        <v>540</v>
+      </c>
+      <c r="H23">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>60</v>
+      </c>
+      <c r="M23">
+        <v>3904</v>
+      </c>
+      <c r="N23">
+        <v>4095</v>
+      </c>
+      <c r="O23">
+        <v>129</v>
+      </c>
+      <c r="P23">
+        <v>129</v>
+      </c>
+      <c r="Q23">
+        <v>130</v>
+      </c>
+      <c r="R23">
+        <v>131</v>
+      </c>
+      <c r="S23">
+        <v>3473</v>
+      </c>
+      <c r="T23">
+        <v>-3470</v>
+      </c>
+      <c r="U23">
+        <v>3916</v>
+      </c>
+      <c r="V23">
+        <v>1271</v>
+      </c>
+      <c r="W23">
+        <v>827</v>
+      </c>
+      <c r="X23">
+        <v>839</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>23</v>
+      </c>
+      <c r="AA23">
+        <v>24</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>32</v>
+      </c>
+      <c r="AJ23">
+        <v>33</v>
+      </c>
+      <c r="AK23">
+        <v>34</v>
+      </c>
+      <c r="AL23">
+        <v>35</v>
+      </c>
+      <c r="AM23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>16231</v>
+      </c>
+      <c r="E24">
+        <v>-1288</v>
+      </c>
+      <c r="F24">
+        <v>9500</v>
+      </c>
+      <c r="G24">
+        <v>581</v>
+      </c>
+      <c r="H24">
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>74</v>
+      </c>
+      <c r="M24">
+        <v>3860</v>
+      </c>
+      <c r="N24">
+        <v>4095</v>
+      </c>
+      <c r="O24">
+        <v>129</v>
+      </c>
+      <c r="P24">
+        <v>129</v>
+      </c>
+      <c r="Q24">
+        <v>130</v>
+      </c>
+      <c r="R24">
+        <v>131</v>
+      </c>
+      <c r="S24">
+        <v>-60919</v>
+      </c>
+      <c r="T24">
+        <v>60958</v>
+      </c>
+      <c r="U24">
+        <v>4058</v>
+      </c>
+      <c r="V24">
+        <v>1266</v>
+      </c>
+      <c r="W24">
+        <v>828</v>
+      </c>
+      <c r="X24">
+        <v>836</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>23</v>
+      </c>
+      <c r="AA24">
+        <v>24</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>32</v>
+      </c>
+      <c r="AJ24">
+        <v>33</v>
+      </c>
+      <c r="AK24">
+        <v>34</v>
+      </c>
+      <c r="AL24">
+        <v>35</v>
+      </c>
+      <c r="AM24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>14490</v>
+      </c>
+      <c r="E25">
+        <v>-1419</v>
+      </c>
+      <c r="F25">
+        <v>9300</v>
+      </c>
+      <c r="G25">
+        <v>586</v>
+      </c>
+      <c r="H25">
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>3867</v>
+      </c>
+      <c r="N25">
+        <v>4095</v>
+      </c>
+      <c r="O25">
+        <v>129</v>
+      </c>
+      <c r="P25">
+        <v>129</v>
+      </c>
+      <c r="Q25">
+        <v>130</v>
+      </c>
+      <c r="R25">
+        <v>131</v>
+      </c>
+      <c r="S25">
+        <v>3513</v>
+      </c>
+      <c r="T25">
+        <v>-3521</v>
+      </c>
+      <c r="U25">
+        <v>4058</v>
+      </c>
+      <c r="V25">
+        <v>1266</v>
+      </c>
+      <c r="W25">
+        <v>828</v>
+      </c>
+      <c r="X25">
+        <v>836</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+      <c r="AA25">
+        <v>24</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>32</v>
+      </c>
+      <c r="AJ25">
+        <v>33</v>
+      </c>
+      <c r="AK25">
+        <v>34</v>
+      </c>
+      <c r="AL25">
+        <v>35</v>
+      </c>
+      <c r="AM25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>9556</v>
+      </c>
+      <c r="E26">
+        <v>-1739</v>
+      </c>
+      <c r="F26">
+        <v>10700</v>
+      </c>
+      <c r="G26">
+        <v>511</v>
+      </c>
+      <c r="H26">
+        <v>38</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>92</v>
+      </c>
+      <c r="M26">
+        <v>3858</v>
+      </c>
+      <c r="N26">
+        <v>4095</v>
+      </c>
+      <c r="O26">
+        <v>129</v>
+      </c>
+      <c r="P26">
+        <v>129</v>
+      </c>
+      <c r="Q26">
+        <v>130</v>
+      </c>
+      <c r="R26">
+        <v>131</v>
+      </c>
+      <c r="S26">
+        <v>3406</v>
+      </c>
+      <c r="T26">
+        <v>-3382</v>
+      </c>
+      <c r="U26">
+        <v>3920</v>
+      </c>
+      <c r="V26">
+        <v>1271</v>
+      </c>
+      <c r="W26">
+        <v>827</v>
+      </c>
+      <c r="X26">
+        <v>839</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>23</v>
+      </c>
+      <c r="AA26">
+        <v>24</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>32</v>
+      </c>
+      <c r="AJ26">
+        <v>33</v>
+      </c>
+      <c r="AK26">
+        <v>34</v>
+      </c>
+      <c r="AL26">
+        <v>35</v>
+      </c>
+      <c r="AM26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>9532</v>
+      </c>
+      <c r="E27">
+        <v>-1743</v>
+      </c>
+      <c r="F27">
+        <v>11200</v>
+      </c>
+      <c r="G27">
+        <v>531</v>
+      </c>
+      <c r="H27">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>3838</v>
+      </c>
+      <c r="N27">
+        <v>4092</v>
+      </c>
+      <c r="O27">
+        <v>129</v>
+      </c>
+      <c r="P27">
+        <v>129</v>
+      </c>
+      <c r="Q27">
+        <v>130</v>
+      </c>
+      <c r="R27">
+        <v>131</v>
+      </c>
+      <c r="S27">
+        <v>3487</v>
+      </c>
+      <c r="T27">
+        <v>-3421</v>
+      </c>
+      <c r="U27">
+        <v>3947</v>
+      </c>
+      <c r="V27">
+        <v>1271</v>
+      </c>
+      <c r="W27">
+        <v>827</v>
+      </c>
+      <c r="X27">
+        <v>839</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>23</v>
+      </c>
+      <c r="AA27">
+        <v>24</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>32</v>
+      </c>
+      <c r="AJ27">
+        <v>33</v>
+      </c>
+      <c r="AK27">
+        <v>34</v>
+      </c>
+      <c r="AL27">
+        <v>35</v>
+      </c>
+      <c r="AM27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>15256</v>
+      </c>
+      <c r="E28">
+        <v>-1494</v>
+      </c>
+      <c r="F28">
+        <v>9400</v>
+      </c>
+      <c r="G28">
+        <v>575</v>
+      </c>
+      <c r="H28">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>3836</v>
+      </c>
+      <c r="N28">
+        <v>4095</v>
+      </c>
+      <c r="O28">
+        <v>129</v>
+      </c>
+      <c r="P28">
+        <v>129</v>
+      </c>
+      <c r="Q28">
+        <v>130</v>
+      </c>
+      <c r="R28">
+        <v>131</v>
+      </c>
+      <c r="S28">
+        <v>3415</v>
+      </c>
+      <c r="T28">
+        <v>-3378</v>
+      </c>
+      <c r="U28">
+        <v>4059</v>
+      </c>
+      <c r="V28">
+        <v>1266</v>
+      </c>
+      <c r="W28">
+        <v>828</v>
+      </c>
+      <c r="X28">
+        <v>836</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>23</v>
+      </c>
+      <c r="AA28">
+        <v>24</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>32</v>
+      </c>
+      <c r="AJ28">
+        <v>33</v>
+      </c>
+      <c r="AK28">
+        <v>34</v>
+      </c>
+      <c r="AL28">
+        <v>35</v>
+      </c>
+      <c r="AM28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>11849</v>
+      </c>
+      <c r="E29">
+        <v>-1737</v>
+      </c>
+      <c r="F29">
+        <v>11000</v>
+      </c>
+      <c r="G29">
+        <v>509</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <v>3889</v>
+      </c>
+      <c r="N29">
+        <v>4095</v>
+      </c>
+      <c r="O29">
+        <v>129</v>
+      </c>
+      <c r="P29">
+        <v>129</v>
+      </c>
+      <c r="Q29">
+        <v>130</v>
+      </c>
+      <c r="R29">
+        <v>131</v>
+      </c>
+      <c r="S29">
+        <v>3067</v>
+      </c>
+      <c r="T29">
+        <v>-3178</v>
+      </c>
+      <c r="U29">
+        <v>4032</v>
+      </c>
+      <c r="V29">
+        <v>1271</v>
+      </c>
+      <c r="W29">
+        <v>828</v>
+      </c>
+      <c r="X29">
+        <v>839</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>23</v>
+      </c>
+      <c r="AA29">
+        <v>24</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>32</v>
+      </c>
+      <c r="AJ29">
+        <v>33</v>
+      </c>
+      <c r="AK29">
+        <v>34</v>
+      </c>
+      <c r="AL29">
+        <v>35</v>
+      </c>
+      <c r="AM29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>9433</v>
+      </c>
+      <c r="E30">
+        <v>-1740</v>
+      </c>
+      <c r="F30">
+        <v>11100</v>
+      </c>
+      <c r="G30">
+        <v>517</v>
+      </c>
+      <c r="H30">
+        <v>39</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>3837</v>
+      </c>
+      <c r="N30">
+        <v>4095</v>
+      </c>
+      <c r="O30">
+        <v>129</v>
+      </c>
+      <c r="P30">
+        <v>129</v>
+      </c>
+      <c r="Q30">
+        <v>130</v>
+      </c>
+      <c r="R30">
+        <v>131</v>
+      </c>
+      <c r="S30">
+        <v>3083</v>
+      </c>
+      <c r="T30">
+        <v>-3046</v>
+      </c>
+      <c r="U30">
+        <v>4033</v>
+      </c>
+      <c r="V30">
+        <v>1271</v>
+      </c>
+      <c r="W30">
+        <v>828</v>
+      </c>
+      <c r="X30">
+        <v>839</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>23</v>
+      </c>
+      <c r="AA30">
+        <v>24</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>32</v>
+      </c>
+      <c r="AJ30">
+        <v>33</v>
+      </c>
+      <c r="AK30">
+        <v>34</v>
+      </c>
+      <c r="AL30">
+        <v>35</v>
+      </c>
+      <c r="AM30">
         <v>36</v>
       </c>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt-progect\FCT_SMT\FCT_SMT_1221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5149D4-0D74-4E2E-A471-1D61BD9B5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85572EFF-2E85-4D4D-8006-E41B57A88A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>NG</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>FXLT20220506836_x000D_</t>
+  </si>
+  <si>
+    <t>_x000D_</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
       <selection activeCell="AE27" sqref="A1:XFD1048576"/>
@@ -2986,6 +2989,125 @@
         <v>35</v>
       </c>
       <c r="AM30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>13800</v>
+      </c>
+      <c r="E31">
+        <v>-1419</v>
+      </c>
+      <c r="F31">
+        <v>9400</v>
+      </c>
+      <c r="G31">
+        <v>588</v>
+      </c>
+      <c r="H31">
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>52</v>
+      </c>
+      <c r="M31">
+        <v>3817</v>
+      </c>
+      <c r="N31">
+        <v>4095</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>129</v>
+      </c>
+      <c r="Q31">
+        <v>130</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>3827</v>
+      </c>
+      <c r="T31">
+        <v>-3896</v>
+      </c>
+      <c r="U31">
+        <v>4055</v>
+      </c>
+      <c r="V31">
+        <v>1258</v>
+      </c>
+      <c r="W31">
+        <v>827</v>
+      </c>
+      <c r="X31">
+        <v>836</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>23</v>
+      </c>
+      <c r="AA31">
+        <v>24</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>32</v>
+      </c>
+      <c r="AJ31">
+        <v>33</v>
+      </c>
+      <c r="AK31">
+        <v>34</v>
+      </c>
+      <c r="AL31">
+        <v>35</v>
+      </c>
+      <c r="AM31">
         <v>36</v>
       </c>
     </row>
